--- a/Instances/01_Uniform.xlsx
+++ b/Instances/01_Uniform.xlsx
@@ -9,8 +9,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Generic" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Requirement" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Productdata" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacity" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProcessingTime" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ForecastedAverageDemand" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ForcastedStandardDeviation" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacity" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProcessingTime" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -846,7 +848,7 @@
         <v>0.026</v>
       </c>
       <c r="E2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="F2" t="n">
         <v>0.26</v>
@@ -875,7 +877,7 @@
         <v>0.0248</v>
       </c>
       <c r="E3" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="F3" t="n">
         <v>0.248</v>
@@ -904,7 +906,7 @@
         <v>0.0048</v>
       </c>
       <c r="E4" t="n">
-        <v>0.47</v>
+        <v>0.41</v>
       </c>
       <c r="F4" t="n">
         <v>0.048</v>
@@ -927,13 +929,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>0.002</v>
       </c>
       <c r="E5" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="F5" t="n">
         <v>0.02</v>
@@ -962,7 +964,7 @@
         <v>0.0036</v>
       </c>
       <c r="E6" t="n">
-        <v>0.46</v>
+        <v>0.33</v>
       </c>
       <c r="F6" t="n">
         <v>0.036</v>
@@ -991,7 +993,7 @@
         <v>0.026</v>
       </c>
       <c r="E7" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F7" t="n">
         <v>0.26</v>
@@ -1020,7 +1022,7 @@
         <v>0.0508</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F8" t="n">
         <v>0.508</v>
@@ -1049,7 +1051,7 @@
         <v>0.0248</v>
       </c>
       <c r="E9" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F9" t="n">
         <v>0.248</v>
@@ -1070,6 +1072,444 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>36.62</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>36.62</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>36.62</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>36.62</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>36.62</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>36.62</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1093,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1109,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>18</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1117,7 +1557,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1125,7 +1565,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1133,7 +1573,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1141,7 +1581,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1149,7 +1589,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>
@@ -1157,7 +1597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1202,7 +1642,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1266,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1298,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1330,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1362,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1394,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1426,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/01_Uniform.xlsx
+++ b/Instances/01_Uniform.xlsx
@@ -848,7 +848,7 @@
         <v>0.026</v>
       </c>
       <c r="E2" t="n">
-        <v>0.17</v>
+        <v>0.000404756949942052</v>
       </c>
       <c r="F2" t="n">
         <v>0.26</v>
@@ -877,7 +877,7 @@
         <v>0.0248</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2</v>
+        <v>0.0004459497907006427</v>
       </c>
       <c r="F3" t="n">
         <v>0.248</v>
@@ -906,7 +906,7 @@
         <v>0.0048</v>
       </c>
       <c r="E4" t="n">
-        <v>0.41</v>
+        <v>0.000897758887441499</v>
       </c>
       <c r="F4" t="n">
         <v>0.048</v>
@@ -935,7 +935,7 @@
         <v>0.002</v>
       </c>
       <c r="E5" t="n">
-        <v>0.39</v>
+        <v>0.0007572007135508818</v>
       </c>
       <c r="F5" t="n">
         <v>0.02</v>
@@ -958,13 +958,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>0.0036</v>
       </c>
       <c r="E6" t="n">
-        <v>0.33</v>
+        <v>0.0007516355403210302</v>
       </c>
       <c r="F6" t="n">
         <v>0.036</v>
@@ -993,7 +993,7 @@
         <v>0.026</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1</v>
+        <v>0.0001763083863323125</v>
       </c>
       <c r="F7" t="n">
         <v>0.26</v>
@@ -1022,7 +1022,7 @@
         <v>0.0508</v>
       </c>
       <c r="E8" t="n">
-        <v>0.11</v>
+        <v>0.0002199985277919863</v>
       </c>
       <c r="F8" t="n">
         <v>0.508</v>
@@ -1051,7 +1051,7 @@
         <v>0.0248</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1</v>
+        <v>0.0001869648576064564</v>
       </c>
       <c r="F9" t="n">
         <v>0.248</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1541,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1549,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10.8</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1557,7 +1557,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.6</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1565,7 +1565,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1573,7 +1573,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1581,7 +1581,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1589,7 +1589,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
     </row>
   </sheetData>
@@ -1642,7 +1642,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/01_Uniform.xlsx
+++ b/Instances/01_Uniform.xlsx
@@ -848,7 +848,7 @@
         <v>0.026</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000404756949942052</v>
+        <v>0.002955627330484931</v>
       </c>
       <c r="F2" t="n">
         <v>0.26</v>
@@ -877,7 +877,7 @@
         <v>0.0248</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0004459497907006427</v>
+        <v>0.003135291374390358</v>
       </c>
       <c r="F3" t="n">
         <v>0.248</v>
@@ -900,13 +900,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0.0048</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000897758887441499</v>
+        <v>0.001223756872666367</v>
       </c>
       <c r="F4" t="n">
         <v>0.048</v>
@@ -935,7 +935,7 @@
         <v>0.002</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0007572007135508818</v>
+        <v>0.0005198627966761789</v>
       </c>
       <c r="F5" t="n">
         <v>0.02</v>
@@ -964,7 +964,7 @@
         <v>0.0036</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0007516355403210302</v>
+        <v>0.0007398605055563865</v>
       </c>
       <c r="F6" t="n">
         <v>0.036</v>
@@ -993,7 +993,7 @@
         <v>0.026</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0001763083863323125</v>
+        <v>0.001327067683946469</v>
       </c>
       <c r="F7" t="n">
         <v>0.26</v>
@@ -1022,7 +1022,7 @@
         <v>0.0508</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0002199985277919863</v>
+        <v>0.003540832438180886</v>
       </c>
       <c r="F8" t="n">
         <v>0.508</v>
@@ -1051,7 +1051,7 @@
         <v>0.0248</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0001869648576064564</v>
+        <v>0.001371940445069088</v>
       </c>
       <c r="F9" t="n">
         <v>0.248</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.8</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1541,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1557,7 +1557,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1565,7 +1565,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>18</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1573,7 +1573,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1581,7 +1581,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1642,7 +1642,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>

--- a/Instances/01_Uniform.xlsx
+++ b/Instances/01_Uniform.xlsx
@@ -842,13 +842,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0.026</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002955627330484931</v>
+        <v>0.002778318024686047</v>
       </c>
       <c r="F2" t="n">
         <v>0.26</v>
@@ -877,7 +877,7 @@
         <v>0.0248</v>
       </c>
       <c r="E3" t="n">
-        <v>0.003135291374390358</v>
+        <v>0.002760766998097105</v>
       </c>
       <c r="F3" t="n">
         <v>0.248</v>
@@ -906,7 +906,7 @@
         <v>0.0048</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001223756872666367</v>
+        <v>0.001119286567401324</v>
       </c>
       <c r="F4" t="n">
         <v>0.048</v>
@@ -935,7 +935,7 @@
         <v>0.002</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0005198627966761789</v>
+        <v>0.0004333262524329665</v>
       </c>
       <c r="F5" t="n">
         <v>0.02</v>
@@ -964,7 +964,7 @@
         <v>0.0036</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0007398605055563865</v>
+        <v>0.0009687501064898334</v>
       </c>
       <c r="F6" t="n">
         <v>0.036</v>
@@ -993,7 +993,7 @@
         <v>0.026</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001327067683946469</v>
+        <v>0.00136934956718323</v>
       </c>
       <c r="F7" t="n">
         <v>0.26</v>
@@ -1022,7 +1022,7 @@
         <v>0.0508</v>
       </c>
       <c r="E8" t="n">
-        <v>0.003540832438180886</v>
+        <v>0.003653405761152025</v>
       </c>
       <c r="F8" t="n">
         <v>0.508</v>
@@ -1051,7 +1051,7 @@
         <v>0.0248</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001371940445069088</v>
+        <v>0.001615068391429515</v>
       </c>
       <c r="F9" t="n">
         <v>0.248</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.4</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1541,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1549,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1565,7 +1565,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.6</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1589,7 +1589,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -1642,7 +1642,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/01_Uniform.xlsx
+++ b/Instances/01_Uniform.xlsx
@@ -842,13 +842,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0.026</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002778318024686047</v>
+        <v>0.02476358797139497</v>
       </c>
       <c r="F2" t="n">
         <v>0.26</v>
@@ -877,7 +877,7 @@
         <v>0.0248</v>
       </c>
       <c r="E3" t="n">
-        <v>0.002760766998097105</v>
+        <v>0.02818172551602465</v>
       </c>
       <c r="F3" t="n">
         <v>0.248</v>
@@ -906,7 +906,7 @@
         <v>0.0048</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001119286567401324</v>
+        <v>0.01028626372818286</v>
       </c>
       <c r="F4" t="n">
         <v>0.048</v>
@@ -929,13 +929,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0.002</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0004333262524329665</v>
+        <v>0.004250813416734421</v>
       </c>
       <c r="F5" t="n">
         <v>0.02</v>
@@ -958,13 +958,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0.0036</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0009687501064898334</v>
+        <v>0.00844479581555704</v>
       </c>
       <c r="F6" t="n">
         <v>0.036</v>
@@ -987,13 +987,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0.026</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00136934956718323</v>
+        <v>0.01415219960031525</v>
       </c>
       <c r="F7" t="n">
         <v>0.26</v>
@@ -1016,13 +1016,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0.0508</v>
       </c>
       <c r="E8" t="n">
-        <v>0.003653405761152025</v>
+        <v>0.02954062259199629</v>
       </c>
       <c r="F8" t="n">
         <v>0.508</v>
@@ -1045,13 +1045,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0.0248</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001615068391429515</v>
+        <v>0.01159350805159042</v>
       </c>
       <c r="F9" t="n">
         <v>0.248</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1541,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1549,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.2</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1557,7 +1557,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.6</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1565,7 +1565,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1589,7 +1589,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>
@@ -1642,7 +1642,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/01_Uniform.xlsx
+++ b/Instances/01_Uniform.xlsx
@@ -842,13 +842,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0.026</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02476358797139497</v>
+        <v>0.052</v>
       </c>
       <c r="F2" t="n">
         <v>0.26</v>
@@ -871,13 +871,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0248</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02818172551602465</v>
+        <v>0.04960000000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0.248</v>
@@ -900,13 +900,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0.0048</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01028626372818286</v>
+        <v>0.0192</v>
       </c>
       <c r="F4" t="n">
         <v>0.048</v>
@@ -929,13 +929,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0.002</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004250813416734421</v>
+        <v>0.008</v>
       </c>
       <c r="F5" t="n">
         <v>0.02</v>
@@ -958,13 +958,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0.0036</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00844479581555704</v>
+        <v>0.0144</v>
       </c>
       <c r="F6" t="n">
         <v>0.036</v>
@@ -993,7 +993,7 @@
         <v>0.026</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01415219960031525</v>
+        <v>0.026</v>
       </c>
       <c r="F7" t="n">
         <v>0.26</v>
@@ -1022,7 +1022,7 @@
         <v>0.0508</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02954062259199629</v>
+        <v>0.0508</v>
       </c>
       <c r="F8" t="n">
         <v>0.508</v>
@@ -1051,7 +1051,7 @@
         <v>0.0248</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01159350805159042</v>
+        <v>0.0248</v>
       </c>
       <c r="F9" t="n">
         <v>0.248</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7.2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1541,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1549,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10.8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1557,7 +1557,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10.8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1565,7 +1565,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.2</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1573,7 +1573,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1581,7 +1581,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1589,7 +1589,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1642,7 +1642,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/01_Uniform.xlsx
+++ b/Instances/01_Uniform.xlsx
@@ -848,7 +848,7 @@
         <v>0.026</v>
       </c>
       <c r="E2" t="n">
-        <v>0.052</v>
+        <v>0.026</v>
       </c>
       <c r="F2" t="n">
         <v>0.26</v>
@@ -877,7 +877,7 @@
         <v>0.0248</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04960000000000001</v>
+        <v>0.0248</v>
       </c>
       <c r="F3" t="n">
         <v>0.248</v>
@@ -906,7 +906,7 @@
         <v>0.0048</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0192</v>
+        <v>0.009600000000000001</v>
       </c>
       <c r="F4" t="n">
         <v>0.048</v>
@@ -935,7 +935,7 @@
         <v>0.002</v>
       </c>
       <c r="E5" t="n">
-        <v>0.008</v>
+        <v>0.004</v>
       </c>
       <c r="F5" t="n">
         <v>0.02</v>
@@ -964,7 +964,7 @@
         <v>0.0036</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0144</v>
+        <v>0.0072</v>
       </c>
       <c r="F6" t="n">
         <v>0.036</v>
@@ -993,7 +993,7 @@
         <v>0.026</v>
       </c>
       <c r="E7" t="n">
-        <v>0.026</v>
+        <v>0.013</v>
       </c>
       <c r="F7" t="n">
         <v>0.26</v>
@@ -1022,7 +1022,7 @@
         <v>0.0508</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0508</v>
+        <v>0.0254</v>
       </c>
       <c r="F8" t="n">
         <v>0.508</v>
@@ -1051,7 +1051,7 @@
         <v>0.0248</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0248</v>
+        <v>0.0124</v>
       </c>
       <c r="F9" t="n">
         <v>0.248</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1541,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1549,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1557,7 +1557,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1565,7 +1565,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1573,7 +1573,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1581,7 +1581,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1589,7 +1589,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1642,7 +1642,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/01_Uniform.xlsx
+++ b/Instances/01_Uniform.xlsx
@@ -987,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>0.026</v>
@@ -1016,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>0.0508</v>
@@ -1045,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>0.0248</v>
@@ -1541,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1549,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1565,7 +1565,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1573,7 +1573,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1589,7 +1589,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/01_Uniform.xlsx
+++ b/Instances/01_Uniform.xlsx
@@ -848,7 +848,7 @@
         <v>0.026</v>
       </c>
       <c r="E2" t="n">
-        <v>0.026</v>
+        <v>0.009750000000000002</v>
       </c>
       <c r="F2" t="n">
         <v>0.26</v>
@@ -877,7 +877,7 @@
         <v>0.0248</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0248</v>
+        <v>0.009300000000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0.248</v>
@@ -900,13 +900,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>0.0048</v>
       </c>
       <c r="E4" t="n">
-        <v>0.009600000000000001</v>
+        <v>0.0036</v>
       </c>
       <c r="F4" t="n">
         <v>0.048</v>
@@ -929,13 +929,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>0.002</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004</v>
+        <v>0.0015</v>
       </c>
       <c r="F5" t="n">
         <v>0.02</v>
@@ -958,13 +958,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>0.0036</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0072</v>
+        <v>0.0027</v>
       </c>
       <c r="F6" t="n">
         <v>0.036</v>
@@ -987,13 +987,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0.026</v>
       </c>
       <c r="E7" t="n">
-        <v>0.013</v>
+        <v>0.004875000000000001</v>
       </c>
       <c r="F7" t="n">
         <v>0.26</v>
@@ -1016,13 +1016,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0.0508</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0254</v>
+        <v>0.009525</v>
       </c>
       <c r="F8" t="n">
         <v>0.508</v>
@@ -1045,13 +1045,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0.0248</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0124</v>
+        <v>0.00465</v>
       </c>
       <c r="F9" t="n">
         <v>0.248</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1541,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1549,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1565,7 +1565,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1573,7 +1573,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1589,7 +1589,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1642,7 +1642,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/01_Uniform.xlsx
+++ b/Instances/01_Uniform.xlsx
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1541,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1557,7 +1557,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1565,7 +1565,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1573,7 +1573,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1581,7 +1581,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1589,7 +1589,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1642,7 +1642,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
